--- a/application/views/rpt/ua/doc/TTN_2014.xlsx
+++ b/application/views/rpt/ua/doc/TTN_2014.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -247,21 +247,6 @@
     <t>{$v-&gt;footer-&gt;vat} грн</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;i}&lt;merge2&gt;</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_name}&lt;merge14&gt;</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_unit}&lt;merge7&gt;</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_quantity}&lt;merge4&gt;</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_price}&lt;merge8&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">{$v-&gt;doc_view-&gt;extra-&gt;place_number} </t>
   </si>
   <si>
@@ -284,6 +269,21 @@
   </si>
   <si>
     <t>{$v-&gt;doc_view-&gt;total_spell}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_name}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_unit}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_quantity}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_price}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;i}</t>
   </si>
 </sst>
 </file>
@@ -657,125 +657,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,8 +1084,8 @@
   </sheetPr>
   <dimension ref="A1:BK69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24:BH24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1155,152 +1155,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="AL1" s="49" t="s">
+      <c r="AL1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="AL3" s="49" t="s">
+      <c r="AL3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="85"/>
     </row>
     <row r="4" spans="1:63" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AL4" s="49" t="s">
+      <c r="AL4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
     </row>
     <row r="6" spans="1:63" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="84"/>
-      <c r="BF6" s="84"/>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="84"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="48"/>
+      <c r="BC6" s="48"/>
+      <c r="BD6" s="48"/>
+      <c r="BE6" s="48"/>
+      <c r="BF6" s="48"/>
+      <c r="BG6" s="48"/>
+      <c r="BH6" s="48"/>
     </row>
     <row r="7" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
       <c r="Q7" s="2"/>
@@ -1313,23 +1313,23 @@
       <c r="X7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="85" t="s">
+      <c r="Y7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="86" t="s">
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -1392,116 +1392,116 @@
       <c r="BH8" s="7"/>
     </row>
     <row r="9" spans="1:63" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="82" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="58" t="s">
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="87" t="s">
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="58" t="s">
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" s="58"/>
-      <c r="AZ9" s="58"/>
-      <c r="BA9" s="58"/>
-      <c r="BB9" s="58"/>
-      <c r="BC9" s="58"/>
-      <c r="BD9" s="58"/>
-      <c r="BE9" s="58"/>
-      <c r="BF9" s="58"/>
-      <c r="BG9" s="58"/>
-      <c r="BH9" s="58"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="51"/>
+      <c r="BB9" s="51"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51"/>
+      <c r="BH9" s="51"/>
       <c r="BI9"/>
       <c r="BJ9"/>
       <c r="BK9"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="AB10" s="50" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="AB10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
     </row>
     <row r="11" spans="1:63" s="1" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -1564,123 +1564,123 @@
       <c r="BH11" s="5"/>
     </row>
     <row r="12" spans="1:63" s="1" customFormat="1" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="82" t="s">
+      <c r="AL12" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AM12" s="82"/>
-      <c r="AN12" s="82"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="58" t="s">
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
     </row>
     <row r="13" spans="1:63" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AP13" s="50" t="s">
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AP13" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50"/>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="BH13" s="53"/>
     </row>
     <row r="14" spans="1:63" s="1" customFormat="1" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -1739,503 +1739,503 @@
       <c r="BD14" s="5"/>
     </row>
     <row r="15" spans="1:63" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="58"/>
-      <c r="BB15" s="58"/>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="58"/>
-      <c r="BE15" s="58"/>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="58"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
       <c r="BI15"/>
       <c r="BJ15"/>
       <c r="BK15"/>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="50"/>
-      <c r="BA16" s="50"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="50"/>
-      <c r="BE16" s="50"/>
-      <c r="BF16" s="50"/>
-      <c r="BG16" s="50"/>
-      <c r="BH16" s="50"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="BH16" s="53"/>
     </row>
     <row r="17" spans="1:63" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:63" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
       <c r="BI18"/>
       <c r="BJ18"/>
       <c r="BK18"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="50"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="53"/>
+      <c r="BA19" s="53"/>
+      <c r="BB19" s="53"/>
+      <c r="BC19" s="53"/>
+      <c r="BD19" s="53"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="53"/>
+      <c r="BG19" s="53"/>
+      <c r="BH19" s="53"/>
     </row>
     <row r="20" spans="1:63" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:63" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
-      <c r="BB21" s="58"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
       <c r="BI21"/>
       <c r="BJ21"/>
       <c r="BK21"/>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="50"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="50"/>
-      <c r="BE22" s="50"/>
-      <c r="BF22" s="50"/>
-      <c r="BG22" s="50"/>
-      <c r="BH22" s="50"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
+      <c r="BC22" s="53"/>
+      <c r="BD22" s="53"/>
+      <c r="BE22" s="53"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
     </row>
     <row r="23" spans="1:63" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:63" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="82" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="58"/>
-      <c r="BA24" s="58"/>
-      <c r="BB24" s="58"/>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="58"/>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="58"/>
-      <c r="BG24" s="58"/>
-      <c r="BH24" s="58"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="52"/>
+      <c r="AK24" s="52"/>
+      <c r="AL24" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
       <c r="BI24"/>
       <c r="BJ24"/>
       <c r="BK24"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AL25" s="50" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AL25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AM25" s="50"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
-      <c r="BB25" s="50"/>
-      <c r="BC25" s="50"/>
-      <c r="BD25" s="50"/>
-      <c r="BE25" s="50"/>
-      <c r="BF25" s="50"/>
-      <c r="BG25" s="50"/>
-      <c r="BH25" s="50"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
     </row>
     <row r="26" spans="1:63" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
@@ -2308,110 +2308,110 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="83"/>
-      <c r="AB27" s="83"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="83"/>
-      <c r="BG27" s="83"/>
-      <c r="BH27" s="83"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
       <c r="BI27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="BJ27" s="14"/>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="50"/>
-      <c r="AC28" s="50"/>
-      <c r="AD28" s="50"/>
-      <c r="AE28" s="50"/>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="50"/>
-      <c r="BA28" s="50"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="50"/>
-      <c r="BD28" s="50"/>
-      <c r="BE28" s="50"/>
-      <c r="BF28" s="50"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="53"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
     </row>
     <row r="29" spans="1:63" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:63" ht="12" x14ac:dyDescent="0.2">
@@ -2442,49 +2442,49 @@
       <c r="U30" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
       <c r="Z30" s="17" t="s">
         <v>28</v>
       </c>
       <c r="AA30" s="17"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="55" t="s">
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="51"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="51"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="51"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="51"/>
-      <c r="BG30" s="51"/>
-      <c r="BH30" s="51"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="58"/>
+      <c r="AQ30" s="58"/>
+      <c r="AR30" s="58"/>
+      <c r="AS30" s="58"/>
+      <c r="AT30" s="58"/>
+      <c r="AU30" s="58"/>
+      <c r="AV30" s="58"/>
+      <c r="AW30" s="58"/>
+      <c r="AX30" s="58"/>
+      <c r="AY30" s="58"/>
+      <c r="AZ30" s="58"/>
+      <c r="BA30" s="58"/>
+      <c r="BB30" s="58"/>
+      <c r="BC30" s="58"/>
+      <c r="BD30" s="58"/>
+      <c r="BE30" s="58"/>
+      <c r="BF30" s="58"/>
+      <c r="BG30" s="58"/>
+      <c r="BH30" s="58"/>
     </row>
     <row r="32" spans="1:63" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
@@ -2555,18 +2555,18 @@
       <c r="BJ32" s="14"/>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="O33" s="53" t="s">
+      <c r="O33" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
     </row>
     <row r="34" spans="1:60" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:60" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2578,28 +2578,28 @@
       <c r="D35" s="47"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="55" t="s">
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
       <c r="Y35" s="56" t="s">
         <v>74</v>
       </c>
@@ -2612,63 +2612,63 @@
       <c r="AF35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="51"/>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51"/>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="51"/>
-      <c r="BG35" s="51"/>
-      <c r="BH35" s="51"/>
+      <c r="AR35" s="58"/>
+      <c r="AS35" s="58"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="58"/>
+      <c r="BA35" s="58"/>
+      <c r="BB35" s="58"/>
+      <c r="BC35" s="58"/>
+      <c r="BD35" s="58"/>
+      <c r="BE35" s="58"/>
+      <c r="BF35" s="58"/>
+      <c r="BG35" s="58"/>
+      <c r="BH35" s="58"/>
     </row>
     <row r="36" spans="1:60" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="Y36" s="50" t="s">
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="Y36" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="50"/>
-      <c r="AD36" s="50"/>
-      <c r="AE36" s="50"/>
-      <c r="AR36" s="50" t="s">
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AR36" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AS36" s="50"/>
-      <c r="AT36" s="50"/>
-      <c r="AU36" s="50"/>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="50"/>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="50"/>
-      <c r="BE36" s="50"/>
-      <c r="BF36" s="50"/>
-      <c r="BG36" s="50"/>
-      <c r="BH36" s="50"/>
+      <c r="AS36" s="53"/>
+      <c r="AT36" s="53"/>
+      <c r="AU36" s="53"/>
+      <c r="AV36" s="53"/>
+      <c r="AW36" s="53"/>
+      <c r="AX36" s="53"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="53"/>
+      <c r="BA36" s="53"/>
+      <c r="BB36" s="53"/>
+      <c r="BC36" s="53"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="53"/>
+      <c r="BF36" s="53"/>
+      <c r="BG36" s="53"/>
+      <c r="BH36" s="53"/>
     </row>
     <row r="37" spans="1:60" s="12" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:60" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,16 +2711,16 @@
       <c r="AI38" s="18"/>
       <c r="AJ38" s="18"/>
       <c r="AK38" s="18"/>
-      <c r="AL38" s="48" t="s">
+      <c r="AL38" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AM38" s="48"/>
-      <c r="AN38" s="48"/>
-      <c r="AO38" s="48"/>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
+      <c r="AQ38" s="60"/>
+      <c r="AR38" s="60"/>
+      <c r="AS38" s="60"/>
       <c r="AT38" s="56" t="s">
         <v>75</v>
       </c>
@@ -2740,42 +2740,42 @@
       <c r="BH38" s="56"/>
     </row>
     <row r="39" spans="1:60" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U39" s="50" t="s">
+      <c r="U39" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="V39" s="50"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AE39" s="50"/>
-      <c r="AF39" s="50"/>
-      <c r="AG39" s="50"/>
-      <c r="AH39" s="50"/>
-      <c r="AI39" s="50"/>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AT39" s="50" t="s">
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="53"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="53"/>
+      <c r="AE39" s="53"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="53"/>
+      <c r="AJ39" s="53"/>
+      <c r="AK39" s="53"/>
+      <c r="AT39" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50"/>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
-      <c r="BC39" s="50"/>
-      <c r="BD39" s="50"/>
-      <c r="BE39" s="50"/>
-      <c r="BF39" s="50"/>
-      <c r="BG39" s="50"/>
-      <c r="BH39" s="50"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="53"/>
+      <c r="AW39" s="53"/>
+      <c r="AX39" s="53"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="53"/>
+      <c r="BA39" s="53"/>
+      <c r="BB39" s="53"/>
+      <c r="BC39" s="53"/>
+      <c r="BD39" s="53"/>
+      <c r="BE39" s="53"/>
+      <c r="BF39" s="53"/>
+      <c r="BG39" s="53"/>
+      <c r="BH39" s="53"/>
     </row>
     <row r="40" spans="1:60" s="12" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q40" s="19"/>
@@ -2798,89 +2798,89 @@
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
-      <c r="M41" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="51"/>
-      <c r="AG41" s="51"/>
-      <c r="AH41" s="51"/>
-      <c r="AI41" s="51"/>
-      <c r="AJ41" s="51"/>
-      <c r="AK41" s="51"/>
-      <c r="AL41" s="48" t="s">
+      <c r="M41" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AM41" s="48"/>
-      <c r="AN41" s="48"/>
-      <c r="AO41" s="48"/>
-      <c r="AP41" s="48"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="52" t="s">
+      <c r="AM41" s="60"/>
+      <c r="AN41" s="60"/>
+      <c r="AO41" s="60"/>
+      <c r="AP41" s="60"/>
+      <c r="AQ41" s="60"/>
+      <c r="AR41" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="AS41" s="52"/>
-      <c r="AT41" s="52"/>
-      <c r="AU41" s="52"/>
-      <c r="AV41" s="52"/>
-      <c r="AW41" s="52"/>
-      <c r="AX41" s="52"/>
-      <c r="AY41" s="52"/>
-      <c r="AZ41" s="52"/>
-      <c r="BA41" s="52"/>
-      <c r="BB41" s="52"/>
-      <c r="BC41" s="52"/>
-      <c r="BD41" s="52"/>
-      <c r="BE41" s="52"/>
-      <c r="BF41" s="52"/>
-      <c r="BG41" s="52"/>
-      <c r="BH41" s="52"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86"/>
+      <c r="AY41" s="86"/>
+      <c r="AZ41" s="86"/>
+      <c r="BA41" s="86"/>
+      <c r="BB41" s="86"/>
+      <c r="BC41" s="86"/>
+      <c r="BD41" s="86"/>
+      <c r="BE41" s="86"/>
+      <c r="BF41" s="86"/>
+      <c r="BG41" s="86"/>
+      <c r="BH41" s="86"/>
     </row>
     <row r="42" spans="1:60" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
     </row>
     <row r="43" spans="1:60" s="12" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:60" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3138,293 +3138,293 @@
     </row>
     <row r="49" spans="1:63" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:63" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="63"/>
-      <c r="AO50" s="63"/>
-      <c r="AP50" s="63"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="63"/>
-      <c r="AS50" s="63"/>
-      <c r="AT50" s="63"/>
-      <c r="AU50" s="63"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="63"/>
-      <c r="AX50" s="63"/>
-      <c r="AY50" s="63"/>
-      <c r="AZ50" s="63"/>
-      <c r="BA50" s="63"/>
-      <c r="BB50" s="63"/>
-      <c r="BC50" s="63"/>
-      <c r="BD50" s="63"/>
-      <c r="BE50" s="63"/>
-      <c r="BF50" s="63"/>
-      <c r="BG50" s="63"/>
-      <c r="BH50" s="63"/>
-      <c r="BI50" s="63"/>
-      <c r="BJ50" s="63"/>
-      <c r="BK50" s="63"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="61"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="61"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
+      <c r="AW50" s="61"/>
+      <c r="AX50" s="61"/>
+      <c r="AY50" s="61"/>
+      <c r="AZ50" s="61"/>
+      <c r="BA50" s="61"/>
+      <c r="BB50" s="61"/>
+      <c r="BC50" s="61"/>
+      <c r="BD50" s="61"/>
+      <c r="BE50" s="61"/>
+      <c r="BF50" s="61"/>
+      <c r="BG50" s="61"/>
+      <c r="BH50" s="61"/>
+      <c r="BI50" s="61"/>
+      <c r="BJ50" s="61"/>
+      <c r="BK50" s="61"/>
     </row>
     <row r="51" spans="1:63" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:63" s="7" customFormat="1" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81" t="s">
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81" t="s">
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="62"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="81" t="s">
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="62"/>
+      <c r="AA52" s="62"/>
+      <c r="AB52" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="AC52" s="81"/>
-      <c r="AD52" s="81"/>
-      <c r="AE52" s="81"/>
-      <c r="AF52" s="81"/>
-      <c r="AG52" s="81"/>
-      <c r="AH52" s="81"/>
-      <c r="AI52" s="81"/>
-      <c r="AJ52" s="81" t="s">
+      <c r="AC52" s="62"/>
+      <c r="AD52" s="62"/>
+      <c r="AE52" s="62"/>
+      <c r="AF52" s="62"/>
+      <c r="AG52" s="62"/>
+      <c r="AH52" s="62"/>
+      <c r="AI52" s="62"/>
+      <c r="AJ52" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AK52" s="81"/>
-      <c r="AL52" s="81"/>
-      <c r="AM52" s="81"/>
-      <c r="AN52" s="81"/>
-      <c r="AO52" s="81"/>
-      <c r="AP52" s="81"/>
-      <c r="AQ52" s="81"/>
-      <c r="AR52" s="81"/>
-      <c r="AS52" s="81" t="s">
+      <c r="AK52" s="62"/>
+      <c r="AL52" s="62"/>
+      <c r="AM52" s="62"/>
+      <c r="AN52" s="62"/>
+      <c r="AO52" s="62"/>
+      <c r="AP52" s="62"/>
+      <c r="AQ52" s="62"/>
+      <c r="AR52" s="62"/>
+      <c r="AS52" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AT52" s="81"/>
-      <c r="AU52" s="81"/>
-      <c r="AV52" s="81"/>
-      <c r="AW52" s="81"/>
-      <c r="AX52" s="81"/>
-      <c r="AY52" s="81"/>
-      <c r="AZ52" s="81" t="s">
+      <c r="AT52" s="62"/>
+      <c r="AU52" s="62"/>
+      <c r="AV52" s="62"/>
+      <c r="AW52" s="62"/>
+      <c r="AX52" s="62"/>
+      <c r="AY52" s="62"/>
+      <c r="AZ52" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BA52" s="81"/>
-      <c r="BB52" s="81"/>
-      <c r="BC52" s="81"/>
-      <c r="BD52" s="81" t="s">
+      <c r="BA52" s="62"/>
+      <c r="BB52" s="62"/>
+      <c r="BC52" s="62"/>
+      <c r="BD52" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BE52" s="81"/>
-      <c r="BF52" s="81"/>
-      <c r="BG52" s="81"/>
-      <c r="BH52" s="81"/>
-      <c r="BI52" s="81"/>
-      <c r="BJ52" s="81"/>
+      <c r="BE52" s="62"/>
+      <c r="BF52" s="62"/>
+      <c r="BG52" s="62"/>
+      <c r="BH52" s="62"/>
+      <c r="BI52" s="62"/>
+      <c r="BJ52" s="62"/>
     </row>
     <row r="53" spans="1:63" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="79">
+      <c r="A53" s="63">
         <v>1</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79">
+      <c r="B53" s="63"/>
+      <c r="C53" s="63">
         <v>2</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79">
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63">
         <v>3</v>
       </c>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79">
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
+      <c r="X53" s="63">
         <v>4</v>
       </c>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79">
+      <c r="Y53" s="63"/>
+      <c r="Z53" s="63"/>
+      <c r="AA53" s="63"/>
+      <c r="AB53" s="63">
         <v>5</v>
       </c>
-      <c r="AC53" s="79"/>
-      <c r="AD53" s="79"/>
-      <c r="AE53" s="79"/>
-      <c r="AF53" s="79"/>
-      <c r="AG53" s="79"/>
-      <c r="AH53" s="79"/>
-      <c r="AI53" s="79"/>
-      <c r="AJ53" s="79">
+      <c r="AC53" s="63"/>
+      <c r="AD53" s="63"/>
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="63"/>
+      <c r="AG53" s="63"/>
+      <c r="AH53" s="63"/>
+      <c r="AI53" s="63"/>
+      <c r="AJ53" s="63">
         <v>6</v>
       </c>
-      <c r="AK53" s="79"/>
-      <c r="AL53" s="79"/>
-      <c r="AM53" s="79"/>
-      <c r="AN53" s="79"/>
-      <c r="AO53" s="79"/>
-      <c r="AP53" s="79"/>
-      <c r="AQ53" s="79"/>
-      <c r="AR53" s="79"/>
-      <c r="AS53" s="79">
+      <c r="AK53" s="63"/>
+      <c r="AL53" s="63"/>
+      <c r="AM53" s="63"/>
+      <c r="AN53" s="63"/>
+      <c r="AO53" s="63"/>
+      <c r="AP53" s="63"/>
+      <c r="AQ53" s="63"/>
+      <c r="AR53" s="63"/>
+      <c r="AS53" s="63">
         <v>7</v>
       </c>
-      <c r="AT53" s="79"/>
-      <c r="AU53" s="79"/>
-      <c r="AV53" s="79"/>
-      <c r="AW53" s="79"/>
-      <c r="AX53" s="79"/>
-      <c r="AY53" s="79"/>
-      <c r="AZ53" s="79">
+      <c r="AT53" s="63"/>
+      <c r="AU53" s="63"/>
+      <c r="AV53" s="63"/>
+      <c r="AW53" s="63"/>
+      <c r="AX53" s="63"/>
+      <c r="AY53" s="63"/>
+      <c r="AZ53" s="63">
         <v>8</v>
       </c>
-      <c r="BA53" s="79"/>
-      <c r="BB53" s="79"/>
-      <c r="BC53" s="79"/>
-      <c r="BD53" s="80">
+      <c r="BA53" s="63"/>
+      <c r="BB53" s="63"/>
+      <c r="BC53" s="63"/>
+      <c r="BD53" s="64">
         <v>9</v>
       </c>
-      <c r="BE53" s="80"/>
-      <c r="BF53" s="80"/>
-      <c r="BG53" s="80"/>
-      <c r="BH53" s="80"/>
-      <c r="BI53" s="80"/>
-      <c r="BJ53" s="80"/>
+      <c r="BE53" s="64"/>
+      <c r="BF53" s="64"/>
+      <c r="BG53" s="64"/>
+      <c r="BH53" s="64"/>
+      <c r="BI53" s="64"/>
+      <c r="BJ53" s="64"/>
     </row>
     <row r="54" spans="1:63" s="20" customFormat="1" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
-      <c r="Q54" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC54" s="74"/>
-      <c r="AD54" s="74"/>
-      <c r="AE54" s="74"/>
-      <c r="AF54" s="74"/>
-      <c r="AG54" s="74"/>
-      <c r="AH54" s="74"/>
-      <c r="AI54" s="74"/>
-      <c r="AJ54" s="75" t="e">
-        <f>AB54*1.2*X54&amp;"&lt;merge9&gt;"</f>
+      <c r="A54" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC54" s="69"/>
+      <c r="AD54" s="69"/>
+      <c r="AE54" s="69"/>
+      <c r="AF54" s="69"/>
+      <c r="AG54" s="69"/>
+      <c r="AH54" s="69"/>
+      <c r="AI54" s="69"/>
+      <c r="AJ54" s="70" t="e">
+        <f>AB54*1.2*X54</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AK54" s="75"/>
-      <c r="AL54" s="75"/>
-      <c r="AM54" s="75"/>
-      <c r="AN54" s="75"/>
-      <c r="AO54" s="75"/>
-      <c r="AP54" s="75"/>
-      <c r="AQ54" s="75"/>
-      <c r="AR54" s="75"/>
+      <c r="AK54" s="70"/>
+      <c r="AL54" s="70"/>
+      <c r="AM54" s="70"/>
+      <c r="AN54" s="70"/>
+      <c r="AO54" s="70"/>
+      <c r="AP54" s="70"/>
+      <c r="AQ54" s="70"/>
+      <c r="AR54" s="70"/>
       <c r="AS54" s="44"/>
       <c r="AT54" s="45"/>
       <c r="AU54" s="45"/>
@@ -3470,12 +3470,12 @@
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
-      <c r="X55" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="76"/>
-      <c r="AA55" s="76"/>
+      <c r="X55" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y55" s="71"/>
+      <c r="Z55" s="71"/>
+      <c r="AA55" s="71"/>
       <c r="AB55" s="29"/>
       <c r="AC55" s="27"/>
       <c r="AD55" s="27"/>
@@ -3484,17 +3484,17 @@
       <c r="AG55" s="27"/>
       <c r="AH55" s="27"/>
       <c r="AI55" s="28"/>
-      <c r="AJ55" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK55" s="77"/>
-      <c r="AL55" s="77"/>
-      <c r="AM55" s="77"/>
-      <c r="AN55" s="77"/>
-      <c r="AO55" s="77"/>
-      <c r="AP55" s="77"/>
-      <c r="AQ55" s="77"/>
-      <c r="AR55" s="77"/>
+      <c r="AJ55" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK55" s="72"/>
+      <c r="AL55" s="72"/>
+      <c r="AM55" s="72"/>
+      <c r="AN55" s="72"/>
+      <c r="AO55" s="72"/>
+      <c r="AP55" s="72"/>
+      <c r="AQ55" s="72"/>
+      <c r="AR55" s="72"/>
       <c r="AS55" s="26"/>
       <c r="AT55" s="25"/>
       <c r="AU55" s="25"/>
@@ -3516,69 +3516,69 @@
     </row>
     <row r="56" spans="1:63" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:63" s="12" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="P57" s="78" t="s">
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="P57" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="78"/>
-      <c r="AB57" s="78"/>
-      <c r="AC57" s="78"/>
-      <c r="AE57" s="78" t="s">
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="74"/>
+      <c r="W57" s="74"/>
+      <c r="X57" s="74"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="74"/>
+      <c r="AA57" s="74"/>
+      <c r="AB57" s="74"/>
+      <c r="AC57" s="74"/>
+      <c r="AE57" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="AF57" s="78"/>
-      <c r="AG57" s="78"/>
-      <c r="AH57" s="78"/>
-      <c r="AI57" s="78"/>
-      <c r="AJ57" s="78"/>
-      <c r="AK57" s="78"/>
-      <c r="AL57" s="78"/>
-      <c r="AM57" s="78"/>
-      <c r="AN57" s="78"/>
-      <c r="AO57" s="78"/>
-      <c r="AP57" s="78"/>
-      <c r="AQ57" s="78"/>
-      <c r="AR57" s="78"/>
-      <c r="AS57" s="78"/>
-      <c r="AT57" s="78"/>
-      <c r="AW57" s="69" t="s">
+      <c r="AF57" s="74"/>
+      <c r="AG57" s="74"/>
+      <c r="AH57" s="74"/>
+      <c r="AI57" s="74"/>
+      <c r="AJ57" s="74"/>
+      <c r="AK57" s="74"/>
+      <c r="AL57" s="74"/>
+      <c r="AM57" s="74"/>
+      <c r="AN57" s="74"/>
+      <c r="AO57" s="74"/>
+      <c r="AP57" s="74"/>
+      <c r="AQ57" s="74"/>
+      <c r="AR57" s="74"/>
+      <c r="AS57" s="74"/>
+      <c r="AT57" s="74"/>
+      <c r="AW57" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AX57" s="69"/>
-      <c r="AY57" s="69"/>
-      <c r="AZ57" s="69"/>
-      <c r="BA57" s="69"/>
-      <c r="BB57" s="69"/>
-      <c r="BC57" s="69"/>
-      <c r="BD57" s="69"/>
-      <c r="BE57" s="69"/>
-      <c r="BF57" s="69"/>
-      <c r="BG57" s="69"/>
-      <c r="BH57" s="69"/>
-      <c r="BI57" s="69"/>
+      <c r="AX57" s="73"/>
+      <c r="AY57" s="73"/>
+      <c r="AZ57" s="73"/>
+      <c r="BA57" s="73"/>
+      <c r="BB57" s="73"/>
+      <c r="BC57" s="73"/>
+      <c r="BD57" s="73"/>
+      <c r="BE57" s="73"/>
+      <c r="BF57" s="73"/>
+      <c r="BG57" s="73"/>
+      <c r="BH57" s="73"/>
+      <c r="BI57" s="73"/>
     </row>
     <row r="58" spans="1:63" s="12" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:63" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3641,434 +3641,434 @@
       <c r="BI59" s="56"/>
     </row>
     <row r="60" spans="1:63" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="P60" s="53" t="s">
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
+      <c r="P60" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="53"/>
-      <c r="AE60" s="53" t="s">
+      <c r="Q60" s="75"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="75"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="75"/>
+      <c r="V60" s="75"/>
+      <c r="W60" s="75"/>
+      <c r="X60" s="75"/>
+      <c r="Y60" s="75"/>
+      <c r="Z60" s="75"/>
+      <c r="AA60" s="75"/>
+      <c r="AB60" s="75"/>
+      <c r="AC60" s="75"/>
+      <c r="AE60" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="AF60" s="53"/>
-      <c r="AG60" s="53"/>
-      <c r="AH60" s="53"/>
-      <c r="AI60" s="53"/>
-      <c r="AJ60" s="53"/>
-      <c r="AK60" s="53"/>
-      <c r="AL60" s="53"/>
-      <c r="AM60" s="53"/>
-      <c r="AN60" s="53"/>
-      <c r="AO60" s="53"/>
-      <c r="AP60" s="53"/>
-      <c r="AQ60" s="53"/>
-      <c r="AR60" s="53"/>
-      <c r="AS60" s="53"/>
-      <c r="AT60" s="53"/>
-      <c r="AW60" s="53" t="s">
+      <c r="AF60" s="75"/>
+      <c r="AG60" s="75"/>
+      <c r="AH60" s="75"/>
+      <c r="AI60" s="75"/>
+      <c r="AJ60" s="75"/>
+      <c r="AK60" s="75"/>
+      <c r="AL60" s="75"/>
+      <c r="AM60" s="75"/>
+      <c r="AN60" s="75"/>
+      <c r="AO60" s="75"/>
+      <c r="AP60" s="75"/>
+      <c r="AQ60" s="75"/>
+      <c r="AR60" s="75"/>
+      <c r="AS60" s="75"/>
+      <c r="AT60" s="75"/>
+      <c r="AW60" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="AX60" s="53"/>
-      <c r="AY60" s="53"/>
-      <c r="AZ60" s="53"/>
-      <c r="BA60" s="53"/>
-      <c r="BB60" s="53"/>
-      <c r="BC60" s="53"/>
-      <c r="BD60" s="53"/>
-      <c r="BE60" s="53"/>
-      <c r="BF60" s="53"/>
-      <c r="BG60" s="53"/>
-      <c r="BH60" s="53"/>
-      <c r="BI60" s="53"/>
+      <c r="AX60" s="75"/>
+      <c r="AY60" s="75"/>
+      <c r="AZ60" s="75"/>
+      <c r="BA60" s="75"/>
+      <c r="BB60" s="75"/>
+      <c r="BC60" s="75"/>
+      <c r="BD60" s="75"/>
+      <c r="BE60" s="75"/>
+      <c r="BF60" s="75"/>
+      <c r="BG60" s="75"/>
+      <c r="BH60" s="75"/>
+      <c r="BI60" s="75"/>
     </row>
     <row r="62" spans="1:63" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="63"/>
-      <c r="T62" s="63"/>
-      <c r="U62" s="63"/>
-      <c r="V62" s="63"/>
-      <c r="W62" s="63"/>
-      <c r="X62" s="63"/>
-      <c r="Y62" s="63"/>
-      <c r="Z62" s="63"/>
-      <c r="AA62" s="63"/>
-      <c r="AB62" s="63"/>
-      <c r="AC62" s="63"/>
-      <c r="AD62" s="63"/>
-      <c r="AE62" s="63"/>
-      <c r="AF62" s="63"/>
-      <c r="AG62" s="63"/>
-      <c r="AH62" s="63"/>
-      <c r="AI62" s="63"/>
-      <c r="AJ62" s="63"/>
-      <c r="AK62" s="63"/>
-      <c r="AL62" s="63"/>
-      <c r="AM62" s="63"/>
-      <c r="AN62" s="63"/>
-      <c r="AO62" s="63"/>
-      <c r="AP62" s="63"/>
-      <c r="AQ62" s="63"/>
-      <c r="AR62" s="63"/>
-      <c r="AS62" s="63"/>
-      <c r="AT62" s="63"/>
-      <c r="AU62" s="63"/>
-      <c r="AV62" s="63"/>
-      <c r="AW62" s="63"/>
-      <c r="AX62" s="63"/>
-      <c r="AY62" s="63"/>
-      <c r="AZ62" s="63"/>
-      <c r="BA62" s="63"/>
-      <c r="BB62" s="63"/>
-      <c r="BC62" s="63"/>
-      <c r="BD62" s="63"/>
-      <c r="BE62" s="63"/>
-      <c r="BF62" s="63"/>
-      <c r="BG62" s="63"/>
-      <c r="BH62" s="63"/>
-      <c r="BI62" s="63"/>
-      <c r="BJ62" s="63"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="61"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="61"/>
+      <c r="AJ62" s="61"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="61"/>
+      <c r="AM62" s="61"/>
+      <c r="AN62" s="61"/>
+      <c r="AO62" s="61"/>
+      <c r="AP62" s="61"/>
+      <c r="AQ62" s="61"/>
+      <c r="AR62" s="61"/>
+      <c r="AS62" s="61"/>
+      <c r="AT62" s="61"/>
+      <c r="AU62" s="61"/>
+      <c r="AV62" s="61"/>
+      <c r="AW62" s="61"/>
+      <c r="AX62" s="61"/>
+      <c r="AY62" s="61"/>
+      <c r="AZ62" s="61"/>
+      <c r="BA62" s="61"/>
+      <c r="BB62" s="61"/>
+      <c r="BC62" s="61"/>
+      <c r="BD62" s="61"/>
+      <c r="BE62" s="61"/>
+      <c r="BF62" s="61"/>
+      <c r="BG62" s="61"/>
+      <c r="BH62" s="61"/>
+      <c r="BI62" s="61"/>
+      <c r="BJ62" s="61"/>
     </row>
     <row r="63" spans="1:63" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="64"/>
-      <c r="J63" s="64"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="65" t="s">
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
-      <c r="S63" s="65"/>
-      <c r="T63" s="65"/>
-      <c r="U63" s="66" t="s">
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="81"/>
+      <c r="S63" s="81"/>
+      <c r="T63" s="81"/>
+      <c r="U63" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="66"/>
-      <c r="AK63" s="66"/>
-      <c r="AL63" s="66"/>
-      <c r="AM63" s="66"/>
-      <c r="AN63" s="66"/>
-      <c r="AO63" s="66"/>
-      <c r="AP63" s="66"/>
-      <c r="AQ63" s="66"/>
-      <c r="AR63" s="66"/>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
-      <c r="AU63" s="66"/>
-      <c r="AV63" s="66"/>
-      <c r="AW63" s="66"/>
-      <c r="AX63" s="66"/>
-      <c r="AY63" s="66"/>
-      <c r="AZ63" s="67" t="s">
+      <c r="V63" s="82"/>
+      <c r="W63" s="82"/>
+      <c r="X63" s="82"/>
+      <c r="Y63" s="82"/>
+      <c r="Z63" s="82"/>
+      <c r="AA63" s="82"/>
+      <c r="AB63" s="82"/>
+      <c r="AC63" s="82"/>
+      <c r="AD63" s="82"/>
+      <c r="AE63" s="82"/>
+      <c r="AF63" s="82"/>
+      <c r="AG63" s="82"/>
+      <c r="AH63" s="82"/>
+      <c r="AI63" s="82"/>
+      <c r="AJ63" s="82"/>
+      <c r="AK63" s="82"/>
+      <c r="AL63" s="82"/>
+      <c r="AM63" s="82"/>
+      <c r="AN63" s="82"/>
+      <c r="AO63" s="82"/>
+      <c r="AP63" s="82"/>
+      <c r="AQ63" s="82"/>
+      <c r="AR63" s="82"/>
+      <c r="AS63" s="82"/>
+      <c r="AT63" s="82"/>
+      <c r="AU63" s="82"/>
+      <c r="AV63" s="82"/>
+      <c r="AW63" s="82"/>
+      <c r="AX63" s="82"/>
+      <c r="AY63" s="82"/>
+      <c r="AZ63" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="BA63" s="67"/>
-      <c r="BB63" s="67"/>
-      <c r="BC63" s="67"/>
-      <c r="BD63" s="67"/>
-      <c r="BE63" s="67"/>
-      <c r="BF63" s="67"/>
-      <c r="BG63" s="67"/>
-      <c r="BH63" s="67"/>
-      <c r="BI63" s="67"/>
-      <c r="BJ63" s="67"/>
-      <c r="BK63" s="67"/>
+      <c r="BA63" s="83"/>
+      <c r="BB63" s="83"/>
+      <c r="BC63" s="83"/>
+      <c r="BD63" s="83"/>
+      <c r="BE63" s="83"/>
+      <c r="BF63" s="83"/>
+      <c r="BG63" s="83"/>
+      <c r="BH63" s="83"/>
+      <c r="BI63" s="83"/>
+      <c r="BJ63" s="83"/>
+      <c r="BK63" s="83"/>
     </row>
     <row r="64" spans="1:63" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="64"/>
-      <c r="K64" s="64"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="P64" s="65"/>
-      <c r="Q64" s="65"/>
-      <c r="R64" s="65"/>
-      <c r="S64" s="65"/>
-      <c r="T64" s="65"/>
-      <c r="U64" s="68" t="s">
+      <c r="A64" s="80"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="V64" s="68"/>
-      <c r="W64" s="68"/>
-      <c r="X64" s="68"/>
-      <c r="Y64" s="68"/>
-      <c r="Z64" s="68"/>
-      <c r="AA64" s="68"/>
-      <c r="AB64" s="68"/>
-      <c r="AC64" s="68"/>
-      <c r="AD64" s="66" t="s">
+      <c r="V64" s="84"/>
+      <c r="W64" s="84"/>
+      <c r="X64" s="84"/>
+      <c r="Y64" s="84"/>
+      <c r="Z64" s="84"/>
+      <c r="AA64" s="84"/>
+      <c r="AB64" s="84"/>
+      <c r="AC64" s="84"/>
+      <c r="AD64" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
-      <c r="AI64" s="66"/>
-      <c r="AJ64" s="66"/>
-      <c r="AK64" s="66"/>
-      <c r="AL64" s="66"/>
-      <c r="AM64" s="66"/>
-      <c r="AN64" s="66"/>
-      <c r="AO64" s="66"/>
-      <c r="AP64" s="66" t="s">
+      <c r="AE64" s="82"/>
+      <c r="AF64" s="82"/>
+      <c r="AG64" s="82"/>
+      <c r="AH64" s="82"/>
+      <c r="AI64" s="82"/>
+      <c r="AJ64" s="82"/>
+      <c r="AK64" s="82"/>
+      <c r="AL64" s="82"/>
+      <c r="AM64" s="82"/>
+      <c r="AN64" s="82"/>
+      <c r="AO64" s="82"/>
+      <c r="AP64" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="AQ64" s="66"/>
-      <c r="AR64" s="66"/>
-      <c r="AS64" s="66"/>
-      <c r="AT64" s="66"/>
-      <c r="AU64" s="66"/>
-      <c r="AV64" s="66"/>
-      <c r="AW64" s="66"/>
-      <c r="AX64" s="66"/>
-      <c r="AY64" s="66"/>
-      <c r="AZ64" s="67"/>
-      <c r="BA64" s="67"/>
-      <c r="BB64" s="67"/>
-      <c r="BC64" s="67"/>
-      <c r="BD64" s="67"/>
-      <c r="BE64" s="67"/>
-      <c r="BF64" s="67"/>
-      <c r="BG64" s="67"/>
-      <c r="BH64" s="67"/>
-      <c r="BI64" s="67"/>
-      <c r="BJ64" s="67"/>
-      <c r="BK64" s="67"/>
+      <c r="AQ64" s="82"/>
+      <c r="AR64" s="82"/>
+      <c r="AS64" s="82"/>
+      <c r="AT64" s="82"/>
+      <c r="AU64" s="82"/>
+      <c r="AV64" s="82"/>
+      <c r="AW64" s="82"/>
+      <c r="AX64" s="82"/>
+      <c r="AY64" s="82"/>
+      <c r="AZ64" s="83"/>
+      <c r="BA64" s="83"/>
+      <c r="BB64" s="83"/>
+      <c r="BC64" s="83"/>
+      <c r="BD64" s="83"/>
+      <c r="BE64" s="83"/>
+      <c r="BF64" s="83"/>
+      <c r="BG64" s="83"/>
+      <c r="BH64" s="83"/>
+      <c r="BI64" s="83"/>
+      <c r="BJ64" s="83"/>
+      <c r="BK64" s="83"/>
     </row>
     <row r="65" spans="1:63" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="64"/>
-      <c r="J65" s="64"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="P65" s="65"/>
-      <c r="Q65" s="65"/>
-      <c r="R65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="T65" s="65"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68"/>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68"/>
-      <c r="AB65" s="68"/>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="66"/>
-      <c r="AK65" s="66"/>
-      <c r="AL65" s="66"/>
-      <c r="AM65" s="66"/>
-      <c r="AN65" s="66"/>
-      <c r="AO65" s="66"/>
-      <c r="AP65" s="66"/>
-      <c r="AQ65" s="66"/>
-      <c r="AR65" s="66"/>
-      <c r="AS65" s="66"/>
-      <c r="AT65" s="66"/>
-      <c r="AU65" s="66"/>
-      <c r="AV65" s="66"/>
-      <c r="AW65" s="66"/>
-      <c r="AX65" s="66"/>
-      <c r="AY65" s="66"/>
-      <c r="AZ65" s="67"/>
-      <c r="BA65" s="67"/>
-      <c r="BB65" s="67"/>
-      <c r="BC65" s="67"/>
-      <c r="BD65" s="67"/>
-      <c r="BE65" s="67"/>
-      <c r="BF65" s="67"/>
-      <c r="BG65" s="67"/>
-      <c r="BH65" s="67"/>
-      <c r="BI65" s="67"/>
-      <c r="BJ65" s="67"/>
-      <c r="BK65" s="67"/>
+      <c r="A65" s="80"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="81"/>
+      <c r="S65" s="81"/>
+      <c r="T65" s="81"/>
+      <c r="U65" s="84"/>
+      <c r="V65" s="84"/>
+      <c r="W65" s="84"/>
+      <c r="X65" s="84"/>
+      <c r="Y65" s="84"/>
+      <c r="Z65" s="84"/>
+      <c r="AA65" s="84"/>
+      <c r="AB65" s="84"/>
+      <c r="AC65" s="84"/>
+      <c r="AD65" s="82"/>
+      <c r="AE65" s="82"/>
+      <c r="AF65" s="82"/>
+      <c r="AG65" s="82"/>
+      <c r="AH65" s="82"/>
+      <c r="AI65" s="82"/>
+      <c r="AJ65" s="82"/>
+      <c r="AK65" s="82"/>
+      <c r="AL65" s="82"/>
+      <c r="AM65" s="82"/>
+      <c r="AN65" s="82"/>
+      <c r="AO65" s="82"/>
+      <c r="AP65" s="82"/>
+      <c r="AQ65" s="82"/>
+      <c r="AR65" s="82"/>
+      <c r="AS65" s="82"/>
+      <c r="AT65" s="82"/>
+      <c r="AU65" s="82"/>
+      <c r="AV65" s="82"/>
+      <c r="AW65" s="82"/>
+      <c r="AX65" s="82"/>
+      <c r="AY65" s="82"/>
+      <c r="AZ65" s="83"/>
+      <c r="BA65" s="83"/>
+      <c r="BB65" s="83"/>
+      <c r="BC65" s="83"/>
+      <c r="BD65" s="83"/>
+      <c r="BE65" s="83"/>
+      <c r="BF65" s="83"/>
+      <c r="BG65" s="83"/>
+      <c r="BH65" s="83"/>
+      <c r="BI65" s="83"/>
+      <c r="BJ65" s="83"/>
+      <c r="BK65" s="83"/>
     </row>
     <row r="66" spans="1:63" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="60">
+      <c r="A66" s="77">
         <v>10</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="61">
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="78">
         <v>11</v>
       </c>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="62">
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="79">
         <v>12</v>
       </c>
-      <c r="V66" s="62"/>
-      <c r="W66" s="62"/>
-      <c r="X66" s="62"/>
-      <c r="Y66" s="62"/>
-      <c r="Z66" s="62"/>
-      <c r="AA66" s="62"/>
-      <c r="AB66" s="62"/>
-      <c r="AC66" s="62"/>
-      <c r="AD66" s="62">
+      <c r="V66" s="79"/>
+      <c r="W66" s="79"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="79"/>
+      <c r="Z66" s="79"/>
+      <c r="AA66" s="79"/>
+      <c r="AB66" s="79"/>
+      <c r="AC66" s="79"/>
+      <c r="AD66" s="79">
         <v>13</v>
       </c>
-      <c r="AE66" s="62"/>
-      <c r="AF66" s="62"/>
-      <c r="AG66" s="62"/>
-      <c r="AH66" s="62"/>
-      <c r="AI66" s="62"/>
-      <c r="AJ66" s="62"/>
-      <c r="AK66" s="62"/>
-      <c r="AL66" s="62"/>
-      <c r="AM66" s="62"/>
-      <c r="AN66" s="62"/>
-      <c r="AO66" s="62"/>
-      <c r="AP66" s="62">
+      <c r="AE66" s="79"/>
+      <c r="AF66" s="79"/>
+      <c r="AG66" s="79"/>
+      <c r="AH66" s="79"/>
+      <c r="AI66" s="79"/>
+      <c r="AJ66" s="79"/>
+      <c r="AK66" s="79"/>
+      <c r="AL66" s="79"/>
+      <c r="AM66" s="79"/>
+      <c r="AN66" s="79"/>
+      <c r="AO66" s="79"/>
+      <c r="AP66" s="79">
         <v>14</v>
       </c>
-      <c r="AQ66" s="62"/>
-      <c r="AR66" s="62"/>
-      <c r="AS66" s="62"/>
-      <c r="AT66" s="62"/>
-      <c r="AU66" s="62"/>
-      <c r="AV66" s="62"/>
-      <c r="AW66" s="62"/>
-      <c r="AX66" s="62"/>
-      <c r="AY66" s="62"/>
-      <c r="AZ66" s="62">
+      <c r="AQ66" s="79"/>
+      <c r="AR66" s="79"/>
+      <c r="AS66" s="79"/>
+      <c r="AT66" s="79"/>
+      <c r="AU66" s="79"/>
+      <c r="AV66" s="79"/>
+      <c r="AW66" s="79"/>
+      <c r="AX66" s="79"/>
+      <c r="AY66" s="79"/>
+      <c r="AZ66" s="79">
         <v>15</v>
       </c>
-      <c r="BA66" s="62"/>
-      <c r="BB66" s="62"/>
-      <c r="BC66" s="62"/>
-      <c r="BD66" s="62"/>
-      <c r="BE66" s="62"/>
-      <c r="BF66" s="62"/>
-      <c r="BG66" s="62"/>
-      <c r="BH66" s="62"/>
-      <c r="BI66" s="62"/>
-      <c r="BJ66" s="62"/>
-      <c r="BK66" s="62"/>
+      <c r="BA66" s="79"/>
+      <c r="BB66" s="79"/>
+      <c r="BC66" s="79"/>
+      <c r="BD66" s="79"/>
+      <c r="BE66" s="79"/>
+      <c r="BF66" s="79"/>
+      <c r="BG66" s="79"/>
+      <c r="BH66" s="79"/>
+      <c r="BI66" s="79"/>
+      <c r="BJ66" s="79"/>
+      <c r="BK66" s="79"/>
     </row>
     <row r="67" spans="1:63" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="59" t="s">
+      <c r="A67" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="76"/>
       <c r="L67" s="31"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
@@ -4123,19 +4123,19 @@
       <c r="BK67" s="37"/>
     </row>
     <row r="68" spans="1:63" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
       <c r="L68" s="31"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
@@ -4192,6 +4192,103 @@
     <row r="69" spans="1:63" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="AL41:AQ41"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="AL1:BB1"/>
+    <mergeCell ref="AL2:BB2"/>
+    <mergeCell ref="AL3:BB3"/>
+    <mergeCell ref="AL4:BB4"/>
+    <mergeCell ref="U39:AK39"/>
+    <mergeCell ref="AT39:BH39"/>
+    <mergeCell ref="M41:AK41"/>
+    <mergeCell ref="AR41:BH41"/>
+    <mergeCell ref="M42:AK42"/>
+    <mergeCell ref="O33:X33"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="Q35:X35"/>
+    <mergeCell ref="Y35:AE35"/>
+    <mergeCell ref="AR35:BH35"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="Y36:AE36"/>
+    <mergeCell ref="AR36:BH36"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="I21:BH21"/>
+    <mergeCell ref="I22:BH22"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AC66"/>
+    <mergeCell ref="AD66:AO66"/>
+    <mergeCell ref="AP66:AY66"/>
+    <mergeCell ref="AZ66:BK66"/>
+    <mergeCell ref="A62:BJ62"/>
+    <mergeCell ref="A63:K65"/>
+    <mergeCell ref="L63:T65"/>
+    <mergeCell ref="U63:AY63"/>
+    <mergeCell ref="AZ63:BK65"/>
+    <mergeCell ref="U64:AC65"/>
+    <mergeCell ref="AD64:AO65"/>
+    <mergeCell ref="AP64:AY65"/>
+    <mergeCell ref="AW57:BI57"/>
+    <mergeCell ref="B59:M59"/>
+    <mergeCell ref="P59:AC59"/>
+    <mergeCell ref="AE59:AT59"/>
+    <mergeCell ref="AW59:BI59"/>
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="P60:AC60"/>
+    <mergeCell ref="AE60:AT60"/>
+    <mergeCell ref="AW60:BI60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:P54"/>
+    <mergeCell ref="Q54:W54"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="AB54:AI54"/>
+    <mergeCell ref="AJ54:AR54"/>
+    <mergeCell ref="X55:AA55"/>
+    <mergeCell ref="AJ55:AR55"/>
+    <mergeCell ref="B57:M57"/>
+    <mergeCell ref="P57:AC57"/>
+    <mergeCell ref="AE57:AT57"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:P53"/>
+    <mergeCell ref="Q53:W53"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="AB53:AI53"/>
+    <mergeCell ref="AJ53:AR53"/>
+    <mergeCell ref="AS53:AY53"/>
+    <mergeCell ref="AZ53:BC53"/>
+    <mergeCell ref="BD53:BJ53"/>
+    <mergeCell ref="A50:BK50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:W52"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="AB52:AI52"/>
+    <mergeCell ref="AJ52:AR52"/>
+    <mergeCell ref="AS52:AY52"/>
+    <mergeCell ref="AZ52:BC52"/>
+    <mergeCell ref="BD52:BJ52"/>
+    <mergeCell ref="I24:AA24"/>
+    <mergeCell ref="AB24:AK24"/>
+    <mergeCell ref="AL24:BH24"/>
+    <mergeCell ref="AT38:BH38"/>
+    <mergeCell ref="I25:AA25"/>
+    <mergeCell ref="AL25:BH25"/>
+    <mergeCell ref="M27:BH27"/>
+    <mergeCell ref="M28:BH28"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="AB30:AJ30"/>
+    <mergeCell ref="AK30:AO30"/>
+    <mergeCell ref="AP30:BH30"/>
+    <mergeCell ref="A32:BH32"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A30:P30"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A38:T38"/>
+    <mergeCell ref="AL38:AS38"/>
     <mergeCell ref="A47:X47"/>
     <mergeCell ref="A6:BH6"/>
     <mergeCell ref="Y7:AA7"/>
@@ -4216,103 +4313,6 @@
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="I18:BH18"/>
     <mergeCell ref="I19:BH19"/>
-    <mergeCell ref="I24:AA24"/>
-    <mergeCell ref="AB24:AK24"/>
-    <mergeCell ref="AL24:BH24"/>
-    <mergeCell ref="AT38:BH38"/>
-    <mergeCell ref="I25:AA25"/>
-    <mergeCell ref="AL25:BH25"/>
-    <mergeCell ref="M27:BH27"/>
-    <mergeCell ref="M28:BH28"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="AB30:AJ30"/>
-    <mergeCell ref="AK30:AO30"/>
-    <mergeCell ref="AP30:BH30"/>
-    <mergeCell ref="A32:BH32"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A30:P30"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A38:T38"/>
-    <mergeCell ref="AL38:AS38"/>
-    <mergeCell ref="A50:BK50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:W52"/>
-    <mergeCell ref="X52:AA52"/>
-    <mergeCell ref="AB52:AI52"/>
-    <mergeCell ref="AJ52:AR52"/>
-    <mergeCell ref="AS52:AY52"/>
-    <mergeCell ref="AZ52:BC52"/>
-    <mergeCell ref="BD52:BJ52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:P53"/>
-    <mergeCell ref="Q53:W53"/>
-    <mergeCell ref="X53:AA53"/>
-    <mergeCell ref="AB53:AI53"/>
-    <mergeCell ref="AJ53:AR53"/>
-    <mergeCell ref="AS53:AY53"/>
-    <mergeCell ref="AZ53:BC53"/>
-    <mergeCell ref="BD53:BJ53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:P54"/>
-    <mergeCell ref="Q54:W54"/>
-    <mergeCell ref="X54:AA54"/>
-    <mergeCell ref="AB54:AI54"/>
-    <mergeCell ref="AJ54:AR54"/>
-    <mergeCell ref="X55:AA55"/>
-    <mergeCell ref="AJ55:AR55"/>
-    <mergeCell ref="B57:M57"/>
-    <mergeCell ref="P57:AC57"/>
-    <mergeCell ref="AE57:AT57"/>
-    <mergeCell ref="AW57:BI57"/>
-    <mergeCell ref="B59:M59"/>
-    <mergeCell ref="P59:AC59"/>
-    <mergeCell ref="AE59:AT59"/>
-    <mergeCell ref="AW59:BI59"/>
-    <mergeCell ref="B60:M60"/>
-    <mergeCell ref="P60:AC60"/>
-    <mergeCell ref="AE60:AT60"/>
-    <mergeCell ref="AW60:BI60"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AC66"/>
-    <mergeCell ref="AD66:AO66"/>
-    <mergeCell ref="AP66:AY66"/>
-    <mergeCell ref="AZ66:BK66"/>
-    <mergeCell ref="A62:BJ62"/>
-    <mergeCell ref="A63:K65"/>
-    <mergeCell ref="L63:T65"/>
-    <mergeCell ref="U63:AY63"/>
-    <mergeCell ref="AZ63:BK65"/>
-    <mergeCell ref="U64:AC65"/>
-    <mergeCell ref="AD64:AO65"/>
-    <mergeCell ref="AP64:AY65"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="AL41:AQ41"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="AL1:BB1"/>
-    <mergeCell ref="AL2:BB2"/>
-    <mergeCell ref="AL3:BB3"/>
-    <mergeCell ref="AL4:BB4"/>
-    <mergeCell ref="U39:AK39"/>
-    <mergeCell ref="AT39:BH39"/>
-    <mergeCell ref="M41:AK41"/>
-    <mergeCell ref="AR41:BH41"/>
-    <mergeCell ref="M42:AK42"/>
-    <mergeCell ref="O33:X33"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="Q35:X35"/>
-    <mergeCell ref="Y35:AE35"/>
-    <mergeCell ref="AR35:BH35"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="Y36:AE36"/>
-    <mergeCell ref="AR36:BH36"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="I21:BH21"/>
-    <mergeCell ref="I22:BH22"/>
-    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="2" orientation="landscape" r:id="rId1"/>
